--- a/Supplementary Data 2.xlsx
+++ b/Supplementary Data 2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingsun/res/188subgiant/Nature_comm/draft/final_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F7DF1F-4A53-E94C-9C3D-E4D5267C97AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF250B44-BDC5-9241-A708-48C44ABC75A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{4DBBF2F3-E264-BC41-9A45-82C775787648}"/>
   </bookViews>
   <sheets>
-    <sheet name="supplementary_table2" sheetId="1" r:id="rId1"/>
+    <sheet name="supplementary Data 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
